--- a/biology/Médecine/International_AIDS_Society/International_AIDS_Society.xlsx
+++ b/biology/Médecine/International_AIDS_Society/International_AIDS_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'International AIDS Society (IAS), parfois appelée en français Société internationale sur le sida[1], est une association de professionnels de la lutte contre le virus de l'immunodéficience humaine (VIH), fondée en 1988 et basée à Genève.
+L'International AIDS Society (IAS), parfois appelée en français Société internationale sur le sida, est une association de professionnels de la lutte contre le virus de l'immunodéficience humaine (VIH), fondée en 1988 et basée à Genève.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indépendante, en 2014 elle compte 16 000 membres, issus de 196 pays, travaillant à tous les niveaux de la lutte contre le SIDA : chercheurs, cliniciens, personnels hospitaliers, éducateurs, avocats, politiques, patients, etc. Elle organise la Conférence internationale bisannuelle sur le SIDA[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indépendante, en 2014 elle compte 16 000 membres, issus de 196 pays, travaillant à tous les niveaux de la lutte contre le SIDA : chercheurs, cliniciens, personnels hospitaliers, éducateurs, avocats, politiques, patients, etc. Elle organise la Conférence internationale bisannuelle sur le SIDA.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Conférences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Conférences internationales qu'organise l'International AIDS Society sont les conférences les plus fréquentées au monde sur le VIH et le sida[3]. Ces conférences ont commencé en 1985 à Atlanta, en Géorgie, aux États-Unis. Elles furent annuelles jusqu'en 1994, ensuite bisannuelles.
-Liste de ces conférences internationales sur le sida
-Voici la liste de ces conférences internationales sur le sida, qui se sont déroulées, celles programmées, ainsi qu’à venir et leur lieu et leur thèmes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Conférences internationales qu'organise l'International AIDS Society sont les conférences les plus fréquentées au monde sur le VIH et le sida. Ces conférences ont commencé en 1985 à Atlanta, en Géorgie, aux États-Unis. Elles furent annuelles jusqu'en 1994, ensuite bisannuelles.
 </t>
         </is>
       </c>
@@ -573,16 +587,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Conférences</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste de ces conférences internationales sur le sida</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici la liste de ces conférences internationales sur le sida, qui se sont déroulées, celles programmées, ainsi qu’à venir et leur lieu et leur thèmes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>International_AIDS_Society</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/International_AIDS_Society</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peter Piot : 1991 à 1994
 Joep Lange : 2002 à 2004
 Mark Wainberg : 1998 à 2000
 Helene D. Gayle
-Françoise Barré-Sinoussi[4] : 2012 à 2014
+Françoise Barré-Sinoussi : 2012 à 2014
 Chris Beyrer : 2014 à 2016</t>
         </is>
       </c>
